--- a/Pontos_Concorrencia_Curitiba.xlsx
+++ b/Pontos_Concorrencia_Curitiba.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamarra\Documents\PROJETOS\maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3014F46-0ED2-41B4-AC28-FAF8E15E7858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CD0A30-B74B-447F-81F1-3DC7323C5E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERAL - Consolidado Curitiba" sheetId="1" r:id="rId1"/>
-    <sheet name="Correios" sheetId="2" r:id="rId2"/>
-    <sheet name="Jadlog" sheetId="3" r:id="rId3"/>
-    <sheet name="Loggi" sheetId="4" r:id="rId4"/>
-    <sheet name="Pegaki" sheetId="5" r:id="rId5"/>
+    <sheet name="Mercado Livre" sheetId="6" r:id="rId2"/>
+    <sheet name="Correios" sheetId="2" r:id="rId3"/>
+    <sheet name="Jadlog" sheetId="3" r:id="rId4"/>
+    <sheet name="Loggi" sheetId="4" r:id="rId5"/>
+    <sheet name="Pegaki" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4068" uniqueCount="902">
   <si>
     <t>Categoria</t>
   </si>
@@ -1982,6 +1983,759 @@
   </si>
   <si>
     <t>Pça. Tiradentes, 616/620,Centro , Curitiba - PR</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>Agência Mercado Livre</t>
+  </si>
+  <si>
+    <t>PLOTTAGEM</t>
+  </si>
+  <si>
+    <t>Mercado Livre</t>
+  </si>
+  <si>
+    <t>RUA CAMÕES 475, Curitiba (80045320)</t>
+  </si>
+  <si>
+    <t>RUA CAMÕES 475</t>
+  </si>
+  <si>
+    <t>80045320</t>
+  </si>
+  <si>
+    <t>TOP FIGHT</t>
+  </si>
+  <si>
+    <t>RUA VINTE E QUATRO DE MAIO 2228, Rebouças (80220060)</t>
+  </si>
+  <si>
+    <t>RUA VINTE E QUATRO DE MAIO 2228</t>
+  </si>
+  <si>
+    <t>80220060</t>
+  </si>
+  <si>
+    <t>CASA REFRIGERACAO E AR CONDICIONADO</t>
+  </si>
+  <si>
+    <t>Rua Rockefeller 847, Reboucas (80230130)</t>
+  </si>
+  <si>
+    <t>Rua Rockefeller 847</t>
+  </si>
+  <si>
+    <t>80230130</t>
+  </si>
+  <si>
+    <t>PJR</t>
+  </si>
+  <si>
+    <t>Rua Lamenha Lins 87, Centro (80250020)</t>
+  </si>
+  <si>
+    <t>Rua Lamenha Lins 87</t>
+  </si>
+  <si>
+    <t>80250020</t>
+  </si>
+  <si>
+    <t>PLANET HARD SOLUCOES EM TECNOLOGIA</t>
+  </si>
+  <si>
+    <t>RUA JOSÉ NAVES DA CUNHA 353, Seminario (80310080)</t>
+  </si>
+  <si>
+    <t>RUA JOSÉ NAVES DA CUNHA 353</t>
+  </si>
+  <si>
+    <t>80310080</t>
+  </si>
+  <si>
+    <t>GRAFICA SETE BELO</t>
+  </si>
+  <si>
+    <t>RUA PROFESSOR SEBASTIAO PARANA 709, Curitiba (80320070)</t>
+  </si>
+  <si>
+    <t>RUA PROFESSOR SEBASTIAO PARANA 709</t>
+  </si>
+  <si>
+    <t>80320070</t>
+  </si>
+  <si>
+    <t>OPTIONZ</t>
+  </si>
+  <si>
+    <t>AVENIDA VICENTE MACHADO 285, CENTRO (80420010)</t>
+  </si>
+  <si>
+    <t>AVENIDA VICENTE MACHADO 285</t>
+  </si>
+  <si>
+    <t>80420010</t>
+  </si>
+  <si>
+    <t>ICONNECT SOLUCTIONS</t>
+  </si>
+  <si>
+    <t>Rua Senador Xavier da Silva 405, Centro Cívico (80530060)</t>
+  </si>
+  <si>
+    <t>Rua Senador Xavier da Silva 405</t>
+  </si>
+  <si>
+    <t>80530060</t>
+  </si>
+  <si>
+    <t>TRIBE TECNOLOGIA</t>
+  </si>
+  <si>
+    <t>AVENIDA PRESIDENTE KENNEDY 2532, Agua Verde (80610010)</t>
+  </si>
+  <si>
+    <t>AVENIDA PRESIDENTE KENNEDY 2532</t>
+  </si>
+  <si>
+    <t>80610010</t>
+  </si>
+  <si>
+    <t>IMAGEM REAL</t>
+  </si>
+  <si>
+    <t>RUA FRANCISCO ROCHA 1928, Bigorrilho (80710540)</t>
+  </si>
+  <si>
+    <t>RUA FRANCISCO ROCHA 1928</t>
+  </si>
+  <si>
+    <t>80710540</t>
+  </si>
+  <si>
+    <t>MS AUTO CENTER</t>
+  </si>
+  <si>
+    <t>RUA MAJOR HEITOR GUIMARÃES 1926, Campina Do Siqueira (80740340)</t>
+  </si>
+  <si>
+    <t>RUA MAJOR HEITOR GUIMARÃES 1926</t>
+  </si>
+  <si>
+    <t>80740340</t>
+  </si>
+  <si>
+    <t>SONIA PAPELARIA</t>
+  </si>
+  <si>
+    <t>RUA CLARA POLSIN 767, Novo Mundo (81020310)</t>
+  </si>
+  <si>
+    <t>RUA CLARA POLSIN 767</t>
+  </si>
+  <si>
+    <t>81020310</t>
+  </si>
+  <si>
+    <t>AGENCIA PUROWEB</t>
+  </si>
+  <si>
+    <t>RUA MAESTRO FRANCISCO ANTONELLO 866, Fanny (81030100)</t>
+  </si>
+  <si>
+    <t>RUA MAESTRO FRANCISCO ANTONELLO 866</t>
+  </si>
+  <si>
+    <t>81030100</t>
+  </si>
+  <si>
+    <t>FENIX CELL 2</t>
+  </si>
+  <si>
+    <t>R CORONEL HERCULANO DE ARAUJO 1565, Novo Mundo (81050090)</t>
+  </si>
+  <si>
+    <t>R CORONEL HERCULANO DE ARAUJO 1565</t>
+  </si>
+  <si>
+    <t>81050090</t>
+  </si>
+  <si>
+    <t>OPEN ENTREGA</t>
+  </si>
+  <si>
+    <t>R ITATIAIA 961, Portao (81070100)</t>
+  </si>
+  <si>
+    <t>R ITATIAIA 961</t>
+  </si>
+  <si>
+    <t>81070100</t>
+  </si>
+  <si>
+    <t>SOS COMPUTER CELL</t>
+  </si>
+  <si>
+    <t>Rua Laudelino Ferreira Lopes 1788, Curitiba (81130310)</t>
+  </si>
+  <si>
+    <t>Rua Laudelino Ferreira Lopes 1788</t>
+  </si>
+  <si>
+    <t>81130310</t>
+  </si>
+  <si>
+    <t>MURACELL</t>
+  </si>
+  <si>
+    <t>R NELSON FERREIRA DA LUZ 497, Campo Comprido (81220130)</t>
+  </si>
+  <si>
+    <t>R NELSON FERREIRA DA LUZ 497</t>
+  </si>
+  <si>
+    <t>81220130</t>
+  </si>
+  <si>
+    <t>SOFKA MOTO PECAS</t>
+  </si>
+  <si>
+    <t>RUA JOÃO DEMBINSKI 1569, Cidade Industrial (81230000)</t>
+  </si>
+  <si>
+    <t>RUA JOÃO DEMBINSKI 1569</t>
+  </si>
+  <si>
+    <t>81230000</t>
+  </si>
+  <si>
+    <t>ELI PRESENTES</t>
+  </si>
+  <si>
+    <t>R RAUL POMPEIA 330, Cidade Industrial (81240000)</t>
+  </si>
+  <si>
+    <t>R RAUL POMPEIA 330</t>
+  </si>
+  <si>
+    <t>81240000</t>
+  </si>
+  <si>
+    <t>EMPORIO VIDA NATURAL</t>
+  </si>
+  <si>
+    <t>RUA EDUARDO SPRADA 4211, Cidade Industrial (81270010)</t>
+  </si>
+  <si>
+    <t>RUA EDUARDO SPRADA 4211</t>
+  </si>
+  <si>
+    <t>81270010</t>
+  </si>
+  <si>
+    <t>CENTER CELL 3</t>
+  </si>
+  <si>
+    <t>RUA PADRE ESTANISLAU PIASECKI 1193, Cidade Industrial (81280040)</t>
+  </si>
+  <si>
+    <t>RUA PADRE ESTANISLAU PIASECKI 1193</t>
+  </si>
+  <si>
+    <t>81280040</t>
+  </si>
+  <si>
+    <t>CASA BERGAN</t>
+  </si>
+  <si>
+    <t>RUA ANSELMO DE LIMA FILHO 360, Cidade Industrial (81290250)</t>
+  </si>
+  <si>
+    <t>RUA ANSELMO DE LIMA FILHO 360</t>
+  </si>
+  <si>
+    <t>81290250</t>
+  </si>
+  <si>
+    <t>LUANDER SOLUÇÕES</t>
+  </si>
+  <si>
+    <t>RUA MARIA QUITÉRIA 172, Curitiba (81330060)</t>
+  </si>
+  <si>
+    <t>RUA MARIA QUITÉRIA 172</t>
+  </si>
+  <si>
+    <t>81330060</t>
+  </si>
+  <si>
+    <t>LOJA NALU</t>
+  </si>
+  <si>
+    <t>RUA GENERAL POTIGUARA 2781, Curitiba (81330320)</t>
+  </si>
+  <si>
+    <t>RUA GENERAL POTIGUARA 2781</t>
+  </si>
+  <si>
+    <t>81330320</t>
+  </si>
+  <si>
+    <t>RADIO SABARA GOSPEL</t>
+  </si>
+  <si>
+    <t>Rua Antônio Pastre 90, Cidade Industrial (81450390)</t>
+  </si>
+  <si>
+    <t>Rua Antônio Pastre 90</t>
+  </si>
+  <si>
+    <t>81450390</t>
+  </si>
+  <si>
+    <t>ART CELULARES</t>
+  </si>
+  <si>
+    <t>RUA ENETTE DUBARD 337, Tatuquara (81470075)</t>
+  </si>
+  <si>
+    <t>RUA ENETTE DUBARD 337</t>
+  </si>
+  <si>
+    <t>81470075</t>
+  </si>
+  <si>
+    <t>REQUINTE EXPOSITORES</t>
+  </si>
+  <si>
+    <t>RUA ODIR GOMES DA ROCHA 1047, Tatuquara (81470400)</t>
+  </si>
+  <si>
+    <t>RUA ODIR GOMES DA ROCHA 1047</t>
+  </si>
+  <si>
+    <t>81470400</t>
+  </si>
+  <si>
+    <t>IVANOSKI MAQUINAS</t>
+  </si>
+  <si>
+    <t>RUA ALDA BASSETTI BERTHOLDI 1185, Campo de Santana (81490344)</t>
+  </si>
+  <si>
+    <t>RUA ALDA BASSETTI BERTHOLDI 1185</t>
+  </si>
+  <si>
+    <t>81490344</t>
+  </si>
+  <si>
+    <t>XPEEDINFO  INFORMATICA E IMPRESSOES</t>
+  </si>
+  <si>
+    <t>RUA LEONARDO DA VINCI 50, Guabirotuba (81510390)</t>
+  </si>
+  <si>
+    <t>RUA LEONARDO DA VINCI 50</t>
+  </si>
+  <si>
+    <t>81510390</t>
+  </si>
+  <si>
+    <t>GARAGE 31 RACING</t>
+  </si>
+  <si>
+    <t>R JOSE HAUER 173, Uberaba (81580330)</t>
+  </si>
+  <si>
+    <t>R JOSE HAUER 173</t>
+  </si>
+  <si>
+    <t>81580330</t>
+  </si>
+  <si>
+    <t>ANDROID CURITIBA</t>
+  </si>
+  <si>
+    <t>Avenida Marechal Floriano Peixoto 5595, Hauer (81610000)</t>
+  </si>
+  <si>
+    <t>Avenida Marechal Floriano Peixoto 5595</t>
+  </si>
+  <si>
+    <t>81610000</t>
+  </si>
+  <si>
+    <t>FENIX</t>
+  </si>
+  <si>
+    <t>RUA NAPOLEÃO LAUREANO 707, Boqueirao (81650210)</t>
+  </si>
+  <si>
+    <t>RUA NAPOLEÃO LAUREANO 707</t>
+  </si>
+  <si>
+    <t>81650210</t>
+  </si>
+  <si>
+    <t>ZTECH ASSISTÊNCIA TÉCNICA</t>
+  </si>
+  <si>
+    <t>RUA HIPÓLITO DA COSTA 2501, Curitiba (81670440)</t>
+  </si>
+  <si>
+    <t>RUA HIPÓLITO DA COSTA 2501</t>
+  </si>
+  <si>
+    <t>81670440</t>
+  </si>
+  <si>
+    <t>OTICA MONTPARNASSE</t>
+  </si>
+  <si>
+    <t>RUA ANTÔNIO REBELATTO 288, Xaxim (81710120)</t>
+  </si>
+  <si>
+    <t>RUA ANTÔNIO REBELATTO 288</t>
+  </si>
+  <si>
+    <t>81710120</t>
+  </si>
+  <si>
+    <t>HAPPY FESTAS CWB</t>
+  </si>
+  <si>
+    <t>RUA PRIMEIRO DE MAIO 975, Xaxim (81810000)</t>
+  </si>
+  <si>
+    <t>RUA PRIMEIRO DE MAIO 975</t>
+  </si>
+  <si>
+    <t>81810000</t>
+  </si>
+  <si>
+    <t>MMA INFOCEL</t>
+  </si>
+  <si>
+    <t>RUA MONTE NEBO 79, Curitiba (81825200)</t>
+  </si>
+  <si>
+    <t>RUA MONTE NEBO 79</t>
+  </si>
+  <si>
+    <t>81825200</t>
+  </si>
+  <si>
+    <t>WPRINT PRODUTOS E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>RUA DAVID TOWS 209, Curitiba (81830270)</t>
+  </si>
+  <si>
+    <t>RUA DAVID TOWS 209</t>
+  </si>
+  <si>
+    <t>81830270</t>
+  </si>
+  <si>
+    <t>COMBATE COMERCIO E SERVICOS  EIRELI</t>
+  </si>
+  <si>
+    <t>RUA DAVID TOWS 2433, Sitio Cercado (81910440)</t>
+  </si>
+  <si>
+    <t>RUA DAVID TOWS 2433</t>
+  </si>
+  <si>
+    <t>81910440</t>
+  </si>
+  <si>
+    <t>FERNANDA COSMETICOS</t>
+  </si>
+  <si>
+    <t>R SÃO JOSÉ DOS PINHAIS 1260, Sítio Cercado (81920250)</t>
+  </si>
+  <si>
+    <t>R SÃO JOSÉ DOS PINHAIS 1260</t>
+  </si>
+  <si>
+    <t>81920250</t>
+  </si>
+  <si>
+    <t>LU MODAS</t>
+  </si>
+  <si>
+    <t>R MANDIRITUBA 1611, Sitio Cercado (81925540)</t>
+  </si>
+  <si>
+    <t>R MANDIRITUBA 1611</t>
+  </si>
+  <si>
+    <t>81925540</t>
+  </si>
+  <si>
+    <t>FSM INFORMATICA</t>
+  </si>
+  <si>
+    <t>RUA GUACUI 5428, Sitio Cercado (81935080)</t>
+  </si>
+  <si>
+    <t>RUA GUACUI 5428</t>
+  </si>
+  <si>
+    <t>81935080</t>
+  </si>
+  <si>
+    <t>PAROLIN TECH  JFP INFORMATICA</t>
+  </si>
+  <si>
+    <t>Rua Nicola Pellanda 4751, Umbará (81940305)</t>
+  </si>
+  <si>
+    <t>Rua Nicola Pellanda 4751</t>
+  </si>
+  <si>
+    <t>81940305</t>
+  </si>
+  <si>
+    <t>ADW BOMBAS HIDRAULICAS</t>
+  </si>
+  <si>
+    <t>AVENIDA CÂNDIDO HARTMANN 4388, Santa Felicidade (82015102)</t>
+  </si>
+  <si>
+    <t>AVENIDA CÂNDIDO HARTMANN 4388</t>
+  </si>
+  <si>
+    <t>82015102</t>
+  </si>
+  <si>
+    <t>PAPELARIA CASA DO CADERNO</t>
+  </si>
+  <si>
+    <t>RUA SANTA BERTILA BOSCARDIN 30, Curitiba (82020490)</t>
+  </si>
+  <si>
+    <t>RUA SANTA BERTILA BOSCARDIN 30</t>
+  </si>
+  <si>
+    <t>82020490</t>
+  </si>
+  <si>
+    <t>PAPELARIA PILARZINHO</t>
+  </si>
+  <si>
+    <t>RUA RAPOSO TAVARES 1165, Pilarzinho (82100452)</t>
+  </si>
+  <si>
+    <t>RUA RAPOSO TAVARES 1165</t>
+  </si>
+  <si>
+    <t>82100452</t>
+  </si>
+  <si>
+    <t>BAZAR E PAPELARIA ABRANCHES</t>
+  </si>
+  <si>
+    <t>Rua Mateus Leme 5857, Abranches (82130085)</t>
+  </si>
+  <si>
+    <t>Rua Mateus Leme 5857</t>
+  </si>
+  <si>
+    <t>82130085</t>
+  </si>
+  <si>
+    <t>MEGA SHOP</t>
+  </si>
+  <si>
+    <t>RUA ANTÔNIO CORRÊA BITTENCOURT 312, AHÚ (82200260)</t>
+  </si>
+  <si>
+    <t>RUA ANTÔNIO CORRÊA BITTENCOURT 312</t>
+  </si>
+  <si>
+    <t>82200260</t>
+  </si>
+  <si>
+    <t>PAPELARIA E UTILIDADES GRAVA</t>
+  </si>
+  <si>
+    <t>RUA PROFESSOR LEONARDO COBBE 2, Barreirinha (82220050)</t>
+  </si>
+  <si>
+    <t>RUA PROFESSOR LEONARDO COBBE 2</t>
+  </si>
+  <si>
+    <t>82220050</t>
+  </si>
+  <si>
+    <t>LOJA TIM - SAO BRAZ</t>
+  </si>
+  <si>
+    <t>AVENIDA VEREADOR TOALDO TULIO 3225, Sao Braz (82300332)</t>
+  </si>
+  <si>
+    <t>AVENIDA VEREADOR TOALDO TULIO 3225</t>
+  </si>
+  <si>
+    <t>82300332</t>
+  </si>
+  <si>
+    <t>VILAR COMERCIO DE COSMETICOS LTDA</t>
+  </si>
+  <si>
+    <t>RUA ÂNGELO ZANOTTO 171, Butiatuvinha (82320330)</t>
+  </si>
+  <si>
+    <t>RUA ÂNGELO ZANOTTO 171</t>
+  </si>
+  <si>
+    <t>82320330</t>
+  </si>
+  <si>
+    <t>EMPORIO DO LUPULO</t>
+  </si>
+  <si>
+    <t>Rua João Reffo 974, Santa Felicidade (82410000)</t>
+  </si>
+  <si>
+    <t>Rua João Reffo 974</t>
+  </si>
+  <si>
+    <t>82410000</t>
+  </si>
+  <si>
+    <t>BIKE51 PAIXAO POR PEDALAR</t>
+  </si>
+  <si>
+    <t>Rua Estados Unidos 269, Bacacheri (82510050)</t>
+  </si>
+  <si>
+    <t>Rua Estados Unidos 269</t>
+  </si>
+  <si>
+    <t>82510050</t>
+  </si>
+  <si>
+    <t>AJO FECHADURAS</t>
+  </si>
+  <si>
+    <t>RUA CARLOTA STRAUBE DE ARAÚJO 1445, Boa Vista (82560330)</t>
+  </si>
+  <si>
+    <t>RUA CARLOTA STRAUBE DE ARAÚJO 1445</t>
+  </si>
+  <si>
+    <t>82560330</t>
+  </si>
+  <si>
+    <t>RM CELL ASSISTÊNCIA TÉCNICA</t>
+  </si>
+  <si>
+    <t>ESTRADA DE SANTA CÂNDIDA 90, CURITIBA (82630490)</t>
+  </si>
+  <si>
+    <t>ESTRADA DE SANTA CÂNDIDA 90</t>
+  </si>
+  <si>
+    <t>82630490</t>
+  </si>
+  <si>
+    <t>HOT HOBBYS OUTLET</t>
+  </si>
+  <si>
+    <t>RUA THEODORO MAKIOLKA 1542, Santa Cândida (82640010)</t>
+  </si>
+  <si>
+    <t>RUA THEODORO MAKIOLKA 1542</t>
+  </si>
+  <si>
+    <t>82640010</t>
+  </si>
+  <si>
+    <t>VH SHOP EMBALAGENS</t>
+  </si>
+  <si>
+    <t>RUA CORONEL WALLACE SCOTT MURRAY 96, Santa Cândida (82640170)</t>
+  </si>
+  <si>
+    <t>RUA CORONEL WALLACE SCOTT MURRAY 96</t>
+  </si>
+  <si>
+    <t>82640170</t>
+  </si>
+  <si>
+    <t>LOJA KAKO</t>
+  </si>
+  <si>
+    <t>RUA DELEGADO LEOPOLDO BELCZAK 1626, Capão Da Imbuia (82810060)</t>
+  </si>
+  <si>
+    <t>RUA DELEGADO LEOPOLDO BELCZAK 1626</t>
+  </si>
+  <si>
+    <t>82810060</t>
+  </si>
+  <si>
+    <t>BABYDOG</t>
+  </si>
+  <si>
+    <t>Rua Coronel Domingos Soares 1300, Bairro Alto (82820150)</t>
+  </si>
+  <si>
+    <t>Rua Coronel Domingos Soares 1300</t>
+  </si>
+  <si>
+    <t>82820150</t>
+  </si>
+  <si>
+    <t>BICHO ALEGRE PET SHOP</t>
+  </si>
+  <si>
+    <t>R PERCY FELICIANO DE CASTILHO 495, Bairro Alto (82820380)</t>
+  </si>
+  <si>
+    <t>R PERCY FELICIANO DE CASTILHO 495</t>
+  </si>
+  <si>
+    <t>82820380</t>
+  </si>
+  <si>
+    <t>EZEQUIEL LOURENCO</t>
+  </si>
+  <si>
+    <t>RUA LEONARDO NOVICKI 600, Cajuru (82930548)</t>
+  </si>
+  <si>
+    <t>RUA LEONARDO NOVICKI 600</t>
+  </si>
+  <si>
+    <t>82930548</t>
+  </si>
+  <si>
+    <t>NETPOINT INFORMÁTICA</t>
+  </si>
+  <si>
+    <t>RUA LUIZ FRANÇA 1616, CAJURU (82940090)</t>
+  </si>
+  <si>
+    <t>RUA LUIZ FRANÇA 1616</t>
+  </si>
+  <si>
+    <t>82940090</t>
+  </si>
+  <si>
+    <t>AQUARELA PAPELARIA</t>
+  </si>
+  <si>
+    <t>Rua Engenheiro Benedito Mário da Silva 215, Cajuru (82970000)</t>
+  </si>
+  <si>
+    <t>Rua Engenheiro Benedito Mário da Silva 215</t>
+  </si>
+  <si>
+    <t>82970000</t>
   </si>
 </sst>
 </file>
@@ -2024,14 +2778,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2042,7 +2796,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2065,11 +2819,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2092,9 +2861,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2313,13 +3085,13 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F145" sqref="F145"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" customWidth="1"/>
     <col min="3" max="3" width="39.109375" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
@@ -2334,7 +3106,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>651</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7239,7 +8013,7 @@
       <c r="E145" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="F145" s="12" t="s">
+      <c r="F145" s="11" t="s">
         <v>431</v>
       </c>
       <c r="G145" s="5" t="s">
@@ -7375,7 +8149,7 @@
       <c r="E149" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="F149" s="11" t="s">
+      <c r="F149" s="10" t="s">
         <v>650</v>
       </c>
       <c r="G149" s="5" t="s">
@@ -7394,83 +8168,2189 @@
         <v>638</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="5">
+        <v>149</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="G150" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="H150" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="K150" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="5">
+        <v>150</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="G151" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="H151" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J151" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="K151" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
     <row r="152" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H152" s="10"/>
-    </row>
-    <row r="153" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="A152" s="5">
+        <v>151</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="G152" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="H152" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I152" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J152" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="K152" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="5">
+        <v>152</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="G153" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H153" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J153" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="K153" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="5">
+        <v>153</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="H154" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I154" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J154" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="K154" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="5">
+        <v>154</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="G155" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="H155" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I155" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J155" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="K155" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="5">
+        <v>155</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="H156" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I156" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J156" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="K156" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="5">
+        <v>156</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F157" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="G157" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="H157" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I157" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J157" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="K157" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="5">
+        <v>157</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="H158" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I158" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J158" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="K158" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="5">
+        <v>158</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="G159" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="H159" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I159" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J159" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="K159" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="5">
+        <v>159</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="G160" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="H160" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J160" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="K160" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="5">
+        <v>160</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F161" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="G161" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="H161" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I161" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="K161" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="5">
+        <v>161</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="H162" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J162" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="K162" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="5">
+        <v>162</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F163" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="G163" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="H163" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I163" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J163" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="K163" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="5">
+        <v>163</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="G164" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="H164" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J164" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="K164" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="5">
+        <v>164</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F165" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="G165" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="H165" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I165" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J165" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="K165" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="5">
+        <v>165</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="G166" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="H166" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J166" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="K166" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="5">
+        <v>166</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="G167" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="H167" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I167" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J167" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="K167" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="5">
+        <v>167</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E168" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G168" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="H168" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I168" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J168" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="K168" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="5">
+        <v>168</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="G169" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="H169" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I169" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J169" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="K169" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="5">
+        <v>169</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="G170" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="H170" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I170" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J170" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="K170" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="5">
+        <v>170</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="G171" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="H171" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I171" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J171" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="K171" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="5">
+        <v>171</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F172" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="G172" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="H172" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I172" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J172" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="K172" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="5">
+        <v>172</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F173" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="G173" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="H173" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I173" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J173" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="K173" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="5">
+        <v>173</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F174" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="G174" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="H174" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I174" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J174" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="K174" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="5">
+        <v>174</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F175" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="G175" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="H175" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I175" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J175" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="K175" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="5">
+        <v>175</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="G176" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="H176" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I176" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J176" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="K176" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="5">
+        <v>176</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="G177" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="H177" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I177" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J177" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="K177" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="5">
+        <v>177</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E178" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="G178" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="H178" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I178" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J178" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="K178" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="5">
+        <v>178</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E179" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="G179" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="H179" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I179" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J179" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="K179" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="5">
+        <v>179</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="D180" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E180" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="G180" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="H180" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I180" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J180" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="K180" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="5">
+        <v>180</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="D181" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="G181" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="H181" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I181" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J181" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="K181" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="5">
+        <v>181</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E182" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F182" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="G182" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="H182" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I182" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J182" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="K182" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="5">
+        <v>182</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="D183" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E183" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="G183" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="H183" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I183" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J183" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="K183" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="5">
+        <v>183</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="G184" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="H184" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I184" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J184" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="K184" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="5">
+        <v>184</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="D185" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E185" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F185" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="G185" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="H185" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I185" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J185" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="K185" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="5">
+        <v>185</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E186" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="G186" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="H186" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I186" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J186" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="K186" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="5">
+        <v>186</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="G187" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="H187" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I187" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J187" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="K187" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="5">
+        <v>187</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="G188" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="H188" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I188" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J188" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="K188" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="5">
+        <v>188</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F189" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="G189" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="H189" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I189" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J189" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="K189" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="5">
+        <v>189</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F190" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="G190" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="H190" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I190" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J190" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="K190" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="5">
+        <v>190</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="D191" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F191" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="G191" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="H191" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I191" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J191" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="K191" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="5">
+        <v>191</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E192" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F192" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="G192" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="H192" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I192" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J192" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="K192" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="5">
+        <v>192</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="D193" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E193" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F193" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="G193" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="H193" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I193" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J193" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="K193" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="5">
+        <v>193</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="D194" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E194" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F194" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="G194" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="H194" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I194" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J194" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="K194" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="5">
+        <v>194</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="D195" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E195" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F195" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="G195" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="H195" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I195" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J195" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="K195" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="5">
+        <v>195</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E196" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F196" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="G196" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="H196" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I196" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J196" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="K196" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="5">
+        <v>196</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="D197" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E197" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F197" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="G197" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="H197" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I197" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J197" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="K197" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="5">
+        <v>197</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="D198" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E198" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F198" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="G198" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="H198" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I198" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J198" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="K198" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="5">
+        <v>198</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F199" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="G199" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="H199" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I199" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J199" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="K199" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="5">
+        <v>199</v>
+      </c>
+      <c r="B200" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="D200" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E200" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F200" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="G200" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="H200" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I200" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J200" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="K200" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="5">
+        <v>200</v>
+      </c>
+      <c r="B201" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E201" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F201" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="G201" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="H201" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I201" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J201" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="K201" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="5">
+        <v>201</v>
+      </c>
+      <c r="B202" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="D202" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E202" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="G202" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="H202" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I202" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J202" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="K202" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="5">
+        <v>202</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="D203" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E203" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="G203" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="H203" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I203" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J203" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="K203" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="5">
+        <v>203</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="D204" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="G204" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="H204" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I204" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J204" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="K204" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="5">
+        <v>204</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="D205" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E205" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F205" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="G205" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="H205" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I205" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J205" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="K205" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="5">
+        <v>205</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="D206" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E206" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F206" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="G206" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="H206" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I206" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J206" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="K206" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="5">
+        <v>206</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E207" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F207" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="G207" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="H207" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I207" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J207" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="K207" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="5">
+        <v>207</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="D208" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E208" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F208" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="G208" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="H208" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I208" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J208" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="K208" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="5">
+        <v>208</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="D209" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E209" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F209" s="12" t="s">
+        <v>891</v>
+      </c>
+      <c r="G209" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="H209" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I209" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J209" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="K209" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="5">
+        <v>209</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E210" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F210" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="G210" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="H210" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I210" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J210" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="K210" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="5">
+        <v>210</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>898</v>
+      </c>
+      <c r="D211" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E211" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F211" s="12" t="s">
+        <v>899</v>
+      </c>
+      <c r="G211" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="H211" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I211" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J211" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="K211" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8254,6 +11134,2234 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E876812-EBF3-4C4F-80CF-91CA3D66D5C2}">
+  <dimension ref="A1:K63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
+        <v>40</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>42</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>45</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>46</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>48</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>49</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>50</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>51</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
+        <v>52</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
+        <v>54</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
+        <v>55</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="12">
+        <v>56</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
+        <v>58</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
+        <v>59</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="12">
+        <v>60</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>891</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="12">
+        <v>61</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="12">
+        <v>62</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>898</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>899</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
@@ -10959,7 +16067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
@@ -12272,7 +17380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
@@ -15309,24 +20417,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
     <col min="8" max="8" width="19.44140625" customWidth="1"/>
     <col min="10" max="10" width="52.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
+      <c r="A1" s="8" t="s">
+        <v>651</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
